--- a/XlsxToJs/config/英雄武将表.xlsx
+++ b/XlsxToJs/config/英雄武将表.xlsx
@@ -89,12 +89,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,9 +104,123 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,130 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,19 +256,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,163 +400,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +447,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,6 +490,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,21 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,173 +547,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1052,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/XlsxToJs/config/英雄武将表.xlsx
+++ b/XlsxToJs/config/英雄武将表.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,9 @@
       <c r="G1" t="str">
         <v>test</v>
       </c>
+      <c r="H1" t="str">
+        <v>map</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -431,6 +434,9 @@
       <c r="G2" t="str">
         <v>test</v>
       </c>
+      <c r="H2" t="str">
+        <v>map</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -454,6 +460,9 @@
       <c r="G3" t="str">
         <v>array</v>
       </c>
+      <c r="H3" t="str">
+        <v>map</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -477,6 +486,9 @@
       <c r="G4" t="str">
         <v>1,2,3,4</v>
       </c>
+      <c r="H4" t="str">
+        <v>{"name":"aa","age":1}</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -500,6 +512,9 @@
       <c r="G5" t="str">
         <v>1,2,3,5</v>
       </c>
+      <c r="H5" t="str">
+        <v>{"name":"aa","age":1}</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -523,6 +538,9 @@
       <c r="G6" t="str">
         <v>1,2,3,6</v>
       </c>
+      <c r="H6" t="str">
+        <v>{"name":"aa","age":1}</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -546,6 +564,9 @@
       <c r="G7" t="str">
         <v>1,2,3,7</v>
       </c>
+      <c r="H7" t="str">
+        <v>{"name":"aa","age":1}</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -569,6 +590,9 @@
       <c r="G8" t="str">
         <v>1,2,3,8</v>
       </c>
+      <c r="H8" t="str">
+        <v>{"name":"aa","age":1}</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -592,6 +616,9 @@
       <c r="G9" t="str">
         <v>1,2,3,9</v>
       </c>
+      <c r="H9" t="str">
+        <v>{"name":"aa","age":1}</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -615,10 +642,13 @@
       <c r="G10" t="str">
         <v>1,2,3,10</v>
       </c>
+      <c r="H10" t="str">
+        <v>{"name":"aa","age":1}</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H10"/>
   </ignoredErrors>
 </worksheet>
 </file>
